--- a/microstates/SM21_microstate_IDs_with_2D_depiction.xlsx
+++ b/microstates/SM21_microstate_IDs_with_2D_depiction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>Microstate List</t>
   </si>
@@ -28,12 +28,18 @@
     <t>canonical isomeric SMILES</t>
   </si>
   <si>
+    <t>canonical SMILES</t>
+  </si>
+  <si>
     <t>SM21_micro001</t>
   </si>
   <si>
     <t>c1cc(cc(c1)Br)Nc2[nH]cc(/c(=[NH+]/c3cccc(c3)Br)/n2)F</t>
   </si>
   <si>
+    <t>c1cc(cc(c1)Br)Nc2[nH]cc(c(=[NH+]c3cccc(c3)Br)n2)F</t>
+  </si>
+  <si>
     <t>SM21_micro002</t>
   </si>
   <si>
@@ -46,6 +52,9 @@
     <t>c1cc(cc(c1)Br)Nc2c(cn/c(=N/c3cccc(c3)Br)/[nH]2)F</t>
   </si>
   <si>
+    <t>c1cc(cc(c1)Br)Nc2c(cnc(=Nc3cccc(c3)Br)[nH]2)F</t>
+  </si>
+  <si>
     <t>SM21_micro005</t>
   </si>
   <si>
@@ -58,6 +67,9 @@
     <t>c1cc(cc(c1)Br)Nc2[nH]/c(=N/c3cccc(c3)Br)/c(cn2)F</t>
   </si>
   <si>
+    <t>c1cc(cc(c1)Br)Nc2[nH]c(=Nc3cccc(c3)Br)c(cn2)F</t>
+  </si>
+  <si>
     <t>SM21_micro012</t>
   </si>
   <si>
@@ -70,16 +82,16 @@
     <t>c1cc(cc(c1)Br)Nc2[nH]cc(/c(=N\c3cccc(c3)Br)/n2)F</t>
   </si>
   <si>
+    <t>c1cc(cc(c1)Br)Nc2[nH]cc(c(=Nc3cccc(c3)Br)n2)F</t>
+  </si>
+  <si>
     <t>SM21_micro015</t>
   </si>
   <si>
     <t>c1cc(cc(c1)Br)[N-]c2[nH]/c(=N/c3cccc(c3)Br)/c(cn2)F</t>
   </si>
   <si>
-    <t>SM21_micro016</t>
-  </si>
-  <si>
-    <t>c1cc(cc(c1)Br)[N-]c2[nH]cc(/c(=N/c3cccc(c3)Br)/n2)F</t>
+    <t>c1cc(cc(c1)Br)[N-]c2[nH]c(=Nc3cccc(c3)Br)c(cn2)F</t>
   </si>
   <si>
     <t>SM21_micro018</t>
@@ -88,6 +100,15 @@
     <t>c1cc(cc(c1)Br)Nc2c(c[nH]/c(=N/c3cccc(c3)Br)/n2)F</t>
   </si>
   <si>
+    <t>c1cc(cc(c1)Br)Nc2c(c[nH]c(=Nc3cccc(c3)Br)n2)F</t>
+  </si>
+  <si>
+    <t>SM21_micro020</t>
+  </si>
+  <si>
+    <t>c1cc(cc(c1)Br)Nc2c(cnc(n2)Nc3cccc(c3)Br)F</t>
+  </si>
+  <si>
     <t>SM21_micro021</t>
   </si>
   <si>
@@ -112,16 +133,25 @@
     <t>c1cc(cc(c1)Br)[N-]c2[nH]cc(/c(=N\c3cccc(c3)Br)/n2)F</t>
   </si>
   <si>
+    <t>c1cc(cc(c1)Br)[N-]c2[nH]cc(c(=Nc3cccc(c3)Br)n2)F</t>
+  </si>
+  <si>
     <t>SM21_micro026</t>
   </si>
   <si>
     <t>c1cc(cc(c1)Br)Nc2c(c[nH]/c(=[NH+]/c3cccc(c3)Br)/[nH+]2)F</t>
   </si>
   <si>
+    <t>c1cc(cc(c1)Br)Nc2c(c[nH]c(=[NH+]c3cccc(c3)Br)[nH+]2)F</t>
+  </si>
+  <si>
     <t>SM21_micro027</t>
   </si>
   <si>
     <t>c1cc(cc(c1)Br)[NH2+]c2c(c[nH]/c(=[NH+]/c3cccc(c3)Br)/n2)F</t>
+  </si>
+  <si>
+    <t>c1cc(cc(c1)Br)[NH2+]c2c(c[nH]c(=[NH+]c3cccc(c3)Br)n2)F</t>
   </si>
   <si>
     <t>SM21_micro028</t>
@@ -1528,14 +1558,15 @@
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
+    <row r="2" spans="1:4" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1545,205 +1576,283 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>41</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>47</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>49</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>51</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>53</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>55</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B24" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>57</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>59</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>61</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
